--- a/data/pca/factorExposure/factorExposure_2018-10-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0392018824052578</v>
+        <v>0.03483320562644011</v>
       </c>
       <c r="C2">
-        <v>0.05117611548816568</v>
+        <v>0.006746051964228649</v>
       </c>
       <c r="D2">
-        <v>0.0311038418967228</v>
+        <v>0.01087648304379024</v>
       </c>
       <c r="E2">
-        <v>0.05876405012231468</v>
+        <v>-0.01544957480055696</v>
       </c>
       <c r="F2">
-        <v>0.1335084922932015</v>
+        <v>-0.02712223795683255</v>
       </c>
       <c r="G2">
-        <v>-0.1195671851932296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07536147756660461</v>
+      </c>
+      <c r="H2">
+        <v>-0.01760516456036038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1315419017263593</v>
+        <v>0.08444427352309719</v>
       </c>
       <c r="C3">
-        <v>0.01171060141762555</v>
+        <v>-0.03374211416942845</v>
       </c>
       <c r="D3">
-        <v>0.02514318094584437</v>
+        <v>0.02631313891876665</v>
       </c>
       <c r="E3">
-        <v>0.08133963942010072</v>
+        <v>-0.009176179934408654</v>
       </c>
       <c r="F3">
-        <v>0.355895174623555</v>
+        <v>0.0008390776318626616</v>
       </c>
       <c r="G3">
-        <v>-0.2640226009132929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2599129028670727</v>
+      </c>
+      <c r="H3">
+        <v>-0.03484009762734611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0478285311155122</v>
+        <v>0.04665734324554737</v>
       </c>
       <c r="C4">
-        <v>0.03402106789427427</v>
+        <v>-0.005442424092255383</v>
       </c>
       <c r="D4">
-        <v>-0.006617892001783529</v>
+        <v>0.02497782236585444</v>
       </c>
       <c r="E4">
-        <v>0.07168436570722823</v>
+        <v>0.02015371582677478</v>
       </c>
       <c r="F4">
-        <v>0.06242180141808781</v>
+        <v>-0.06317682945777484</v>
       </c>
       <c r="G4">
-        <v>-0.06498854725858708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04354356487067929</v>
+      </c>
+      <c r="H4">
+        <v>-0.02668841504575428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.00999116757122832</v>
+        <v>0.03101883755270488</v>
       </c>
       <c r="C6">
-        <v>0.001033545237137235</v>
+        <v>-0.003642183449814015</v>
       </c>
       <c r="D6">
-        <v>0.009831120591575501</v>
+        <v>0.03207370625986888</v>
       </c>
       <c r="E6">
-        <v>0.007981572097477246</v>
+        <v>0.003393641559432449</v>
       </c>
       <c r="F6">
-        <v>0.01280348401562417</v>
+        <v>-0.03983943934841061</v>
       </c>
       <c r="G6">
-        <v>0.01502949120289685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.00950505824229275</v>
+      </c>
+      <c r="H6">
+        <v>-0.05039512249257055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02467804084326338</v>
+        <v>0.02171040734764594</v>
       </c>
       <c r="C7">
-        <v>0.01960283927790085</v>
+        <v>-0.002291703076747723</v>
       </c>
       <c r="D7">
-        <v>0.02491669309224498</v>
+        <v>0.01695020125581532</v>
       </c>
       <c r="E7">
-        <v>0.03992855848491107</v>
+        <v>0.03505724252353799</v>
       </c>
       <c r="F7">
-        <v>0.06965526094450125</v>
+        <v>-0.02644700165040386</v>
       </c>
       <c r="G7">
-        <v>-0.06011471780710663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03207270441575897</v>
+      </c>
+      <c r="H7">
+        <v>-0.01883931467692242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008378108320255196</v>
+        <v>0.001013395071732373</v>
       </c>
       <c r="C8">
-        <v>0.007532508277112488</v>
+        <v>-0.000512112688555907</v>
       </c>
       <c r="D8">
-        <v>-0.008581512438765076</v>
+        <v>0.01613897163599454</v>
       </c>
       <c r="E8">
-        <v>0.07330994462165673</v>
+        <v>0.01241977092137579</v>
       </c>
       <c r="F8">
-        <v>0.08953222174526088</v>
+        <v>-0.02804418243506253</v>
       </c>
       <c r="G8">
-        <v>-0.06999954824095068</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04908407347494112</v>
+      </c>
+      <c r="H8">
+        <v>-0.009557701019074109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0376056954931929</v>
+        <v>0.03667715177944136</v>
       </c>
       <c r="C9">
-        <v>0.02751265037744507</v>
+        <v>-0.007332027417261027</v>
       </c>
       <c r="D9">
-        <v>-0.0225346871184485</v>
+        <v>0.02127754601138855</v>
       </c>
       <c r="E9">
-        <v>0.07125499412419919</v>
+        <v>0.01916289187846181</v>
       </c>
       <c r="F9">
-        <v>0.07290223123337149</v>
+        <v>-0.040171642356189</v>
       </c>
       <c r="G9">
-        <v>-0.0444084941020625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06049619812062888</v>
+      </c>
+      <c r="H9">
+        <v>-0.02950887015213698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05448676258477012</v>
+        <v>0.07555062735077084</v>
       </c>
       <c r="C10">
-        <v>0.05393293062838386</v>
+        <v>-0.04208393639793677</v>
       </c>
       <c r="D10">
-        <v>-0.01410308477886972</v>
+        <v>-0.1434587197962105</v>
       </c>
       <c r="E10">
-        <v>-0.1163429357749669</v>
+        <v>-0.01378617656205337</v>
       </c>
       <c r="F10">
-        <v>0.06213857961080765</v>
+        <v>0.08950057955644171</v>
       </c>
       <c r="G10">
-        <v>0.007285532012652318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0368646437742762</v>
+      </c>
+      <c r="H10">
+        <v>-0.007510571948308261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03151810776364505</v>
+        <v>0.02226944842812122</v>
       </c>
       <c r="C11">
-        <v>0.01050490192911546</v>
+        <v>-0.0135698956945903</v>
       </c>
       <c r="D11">
-        <v>0.01226485885334268</v>
+        <v>0.03053295114274389</v>
       </c>
       <c r="E11">
-        <v>0.03512925499389528</v>
+        <v>-0.005081963376425185</v>
       </c>
       <c r="F11">
-        <v>0.03800658130582057</v>
+        <v>-0.0252978336874819</v>
       </c>
       <c r="G11">
-        <v>-0.02395580654077698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03223351501163248</v>
+      </c>
+      <c r="H11">
+        <v>-0.02761717907816541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03878959301714322</v>
+        <v>0.03073174832773667</v>
       </c>
       <c r="C12">
-        <v>0.01102881767481691</v>
+        <v>-0.01343982180829304</v>
       </c>
       <c r="D12">
-        <v>0.00248715674299149</v>
+        <v>0.03117478666543532</v>
       </c>
       <c r="E12">
-        <v>0.04828449226019309</v>
+        <v>0.005220084471732439</v>
       </c>
       <c r="F12">
-        <v>0.02465626169700257</v>
+        <v>-0.02906961720783609</v>
       </c>
       <c r="G12">
-        <v>-0.0168176095454535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006823516776528381</v>
+      </c>
+      <c r="H12">
+        <v>-0.01563662481331846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02020080402970122</v>
+        <v>0.02834069383991112</v>
       </c>
       <c r="C13">
-        <v>0.02040902276896515</v>
+        <v>0.007643502899151525</v>
       </c>
       <c r="D13">
-        <v>0.0305637474359328</v>
+        <v>0.002636771759206456</v>
       </c>
       <c r="E13">
-        <v>0.02756582027130051</v>
+        <v>-0.01587480787603698</v>
       </c>
       <c r="F13">
-        <v>0.08283377505932794</v>
+        <v>-0.0202761711327783</v>
       </c>
       <c r="G13">
-        <v>-0.0608747258904752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05942095281012866</v>
+      </c>
+      <c r="H13">
+        <v>-0.02696252927823829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01108819085783288</v>
+        <v>0.01562797457308872</v>
       </c>
       <c r="C14">
-        <v>0.0215941990787444</v>
+        <v>-0.003204633365833111</v>
       </c>
       <c r="D14">
-        <v>0.001000845602871429</v>
+        <v>0.001647792723127545</v>
       </c>
       <c r="E14">
-        <v>0.03955034051442063</v>
+        <v>0.007664924133867409</v>
       </c>
       <c r="F14">
-        <v>0.0625159042890729</v>
+        <v>-0.02610048971884874</v>
       </c>
       <c r="G14">
-        <v>-0.06308268212005058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03762392981672966</v>
+      </c>
+      <c r="H14">
+        <v>0.01871894055049696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02421806146636854</v>
+        <v>0.02212714156994309</v>
       </c>
       <c r="C16">
-        <v>0.01178959960389374</v>
+        <v>-0.01354276669064148</v>
       </c>
       <c r="D16">
-        <v>0.01091676899071573</v>
+        <v>0.03004560210747071</v>
       </c>
       <c r="E16">
-        <v>0.03642548447842827</v>
+        <v>-0.0003470688986476447</v>
       </c>
       <c r="F16">
-        <v>0.03852470582087585</v>
+        <v>-0.02827135772675969</v>
       </c>
       <c r="G16">
-        <v>-0.02953026996618894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02504053790899842</v>
+      </c>
+      <c r="H16">
+        <v>-0.02140955545091713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03710347228759864</v>
+        <v>0.03579979471670716</v>
       </c>
       <c r="C19">
-        <v>0.01223028882387605</v>
+        <v>-0.008538208401225118</v>
       </c>
       <c r="D19">
-        <v>0.0179831436486456</v>
+        <v>0.01024202459295622</v>
       </c>
       <c r="E19">
-        <v>0.04530179520141217</v>
+        <v>-0.002568479331803691</v>
       </c>
       <c r="F19">
-        <v>0.09561326933774128</v>
+        <v>-0.03173321790893319</v>
       </c>
       <c r="G19">
-        <v>-0.06886228944688863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06368650403615732</v>
+      </c>
+      <c r="H19">
+        <v>-0.03954640580686385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.006533316977017138</v>
+        <v>0.007651228471761365</v>
       </c>
       <c r="C20">
-        <v>0.01901508287536847</v>
+        <v>0.00622264558751896</v>
       </c>
       <c r="D20">
-        <v>0.001121639753959548</v>
+        <v>0.003408875802401349</v>
       </c>
       <c r="E20">
-        <v>0.03382654607100088</v>
+        <v>0.002471388309515255</v>
       </c>
       <c r="F20">
-        <v>0.06152880658988424</v>
+        <v>-0.01733252693789055</v>
       </c>
       <c r="G20">
-        <v>-0.0749371684482109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04560603704485635</v>
+      </c>
+      <c r="H20">
+        <v>0.008325438402189869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.004320189701957111</v>
+        <v>0.02241967410144454</v>
       </c>
       <c r="C21">
-        <v>-0.002152565880786541</v>
+        <v>0.001752124932010336</v>
       </c>
       <c r="D21">
-        <v>0.007058352434204235</v>
+        <v>0.0003236510136807451</v>
       </c>
       <c r="E21">
-        <v>0.03483364029379206</v>
+        <v>0.0118533389670876</v>
       </c>
       <c r="F21">
-        <v>0.08887018915905956</v>
+        <v>-0.008089590722327487</v>
       </c>
       <c r="G21">
-        <v>-0.02769779191985593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05343806488445965</v>
+      </c>
+      <c r="H21">
+        <v>-0.01067490129792524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02674081144427441</v>
+        <v>0.02289204199641021</v>
       </c>
       <c r="C24">
-        <v>0.01018498784919206</v>
+        <v>-0.008690526528460377</v>
       </c>
       <c r="D24">
-        <v>0.007974203805074119</v>
+        <v>0.02814682032452604</v>
       </c>
       <c r="E24">
-        <v>0.03047993074964015</v>
+        <v>-0.000253311432658821</v>
       </c>
       <c r="F24">
-        <v>0.03945413479566282</v>
+        <v>-0.02273376492571628</v>
       </c>
       <c r="G24">
-        <v>-0.01492866212906391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02638568706136746</v>
+      </c>
+      <c r="H24">
+        <v>-0.02870969040006787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02962733592747387</v>
+        <v>0.03296361292561177</v>
       </c>
       <c r="C25">
-        <v>0.009409367025876173</v>
+        <v>-0.009006009589939438</v>
       </c>
       <c r="D25">
-        <v>0.005850563714834616</v>
+        <v>0.02192953420038308</v>
       </c>
       <c r="E25">
-        <v>0.03622920884132113</v>
+        <v>0.0002858542388064766</v>
       </c>
       <c r="F25">
-        <v>0.04294415164493383</v>
+        <v>-0.02756949539368462</v>
       </c>
       <c r="G25">
-        <v>-0.008031868242647251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03215644269194971</v>
+      </c>
+      <c r="H25">
+        <v>-0.03141664491490747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01719913268975725</v>
+        <v>0.02056121160199743</v>
       </c>
       <c r="C26">
-        <v>-0.0004323841246931996</v>
+        <v>0.01447688138556844</v>
       </c>
       <c r="D26">
-        <v>0.03312531658705646</v>
+        <v>0.007861650354906399</v>
       </c>
       <c r="E26">
-        <v>0.04871091920262396</v>
+        <v>-0.006096928160444073</v>
       </c>
       <c r="F26">
-        <v>0.0605896376726092</v>
+        <v>-0.006769710696144133</v>
       </c>
       <c r="G26">
-        <v>-0.0393119523971934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03654083291567288</v>
+      </c>
+      <c r="H26">
+        <v>-0.001741126602875728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0723328114627179</v>
+        <v>0.03173576472929784</v>
       </c>
       <c r="C27">
-        <v>0.05062720034556267</v>
+        <v>-0.02002083291489712</v>
       </c>
       <c r="D27">
-        <v>-0.006187226372139554</v>
+        <v>0.002620975454951727</v>
       </c>
       <c r="E27">
-        <v>0.05184356105709156</v>
+        <v>0.003644975231411763</v>
       </c>
       <c r="F27">
-        <v>0.06301747532774368</v>
+        <v>-0.02518718887084667</v>
       </c>
       <c r="G27">
-        <v>-0.06380048104302014</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02615227815843482</v>
+      </c>
+      <c r="H27">
+        <v>0.0008113093300446029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07976698868914686</v>
+        <v>0.1186573512470185</v>
       </c>
       <c r="C28">
-        <v>0.07009939899174823</v>
+        <v>-0.05116944252840878</v>
       </c>
       <c r="D28">
-        <v>-0.03173351541596009</v>
+        <v>-0.2117775084654647</v>
       </c>
       <c r="E28">
-        <v>-0.1857854143013055</v>
+        <v>-0.01494217297900194</v>
       </c>
       <c r="F28">
-        <v>0.05958817349495806</v>
+        <v>0.1263098127212649</v>
       </c>
       <c r="G28">
-        <v>-0.02197773476924925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01842468043990007</v>
+      </c>
+      <c r="H28">
+        <v>0.003743043140983485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01937183774961621</v>
+        <v>0.02060368871056793</v>
       </c>
       <c r="C29">
-        <v>0.02212996245108511</v>
+        <v>-0.006492458147429312</v>
       </c>
       <c r="D29">
-        <v>-0.004036633489704339</v>
+        <v>0.004207488514468851</v>
       </c>
       <c r="E29">
-        <v>0.05948713358955846</v>
+        <v>0.008627799637914506</v>
       </c>
       <c r="F29">
-        <v>0.05346664891746913</v>
+        <v>-0.02879268376726989</v>
       </c>
       <c r="G29">
-        <v>-0.05934398326237215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03181814449989671</v>
+      </c>
+      <c r="H29">
+        <v>0.01739749083076867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07769973429648726</v>
+        <v>0.0552519704877221</v>
       </c>
       <c r="C30">
-        <v>0.05684030332280642</v>
+        <v>-0.008895936972446547</v>
       </c>
       <c r="D30">
-        <v>0.03376398522513053</v>
+        <v>0.04565881373757896</v>
       </c>
       <c r="E30">
-        <v>0.1004645540458998</v>
+        <v>-0.03893365682113645</v>
       </c>
       <c r="F30">
-        <v>0.07197303276135364</v>
+        <v>-0.08274206216795794</v>
       </c>
       <c r="G30">
-        <v>-0.02990550535255432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06480401283603861</v>
+      </c>
+      <c r="H30">
+        <v>-0.03867720424643696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0562887546224481</v>
+        <v>0.05210501263855997</v>
       </c>
       <c r="C31">
-        <v>0.02152158713510124</v>
+        <v>-0.0260949969102147</v>
       </c>
       <c r="D31">
-        <v>0.04569292416811894</v>
+        <v>0.01721714971942596</v>
       </c>
       <c r="E31">
-        <v>0.03342050813135207</v>
+        <v>-0.01198980194966401</v>
       </c>
       <c r="F31">
-        <v>0.03584155648364547</v>
+        <v>-0.02181613686512545</v>
       </c>
       <c r="G31">
-        <v>-0.08721077662390093</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01401315572041801</v>
+      </c>
+      <c r="H31">
+        <v>0.01433434888617471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01140650977424733</v>
+        <v>0.005627519557649027</v>
       </c>
       <c r="C32">
-        <v>0.0211192447161683</v>
+        <v>-0.01510490585697129</v>
       </c>
       <c r="D32">
-        <v>-0.006259261079506888</v>
+        <v>-0.001868501975601083</v>
       </c>
       <c r="E32">
-        <v>0.08102215349088961</v>
+        <v>0.01926339831613382</v>
       </c>
       <c r="F32">
-        <v>0.07394896361904045</v>
+        <v>-0.04445394861250242</v>
       </c>
       <c r="G32">
-        <v>-0.05379235705922918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0472425370368784</v>
+      </c>
+      <c r="H32">
+        <v>-0.04518472415177612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04809120047905067</v>
+        <v>0.03903399828008624</v>
       </c>
       <c r="C33">
-        <v>0.003443305928116702</v>
+        <v>-0.008788228056879404</v>
       </c>
       <c r="D33">
-        <v>0.0392879970957706</v>
+        <v>0.02931045014427571</v>
       </c>
       <c r="E33">
-        <v>0.06973896807200188</v>
+        <v>-0.02351614386523191</v>
       </c>
       <c r="F33">
-        <v>0.09113850559470443</v>
+        <v>-0.01720427105867447</v>
       </c>
       <c r="G33">
-        <v>-0.05181306871852259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05655503358141161</v>
+      </c>
+      <c r="H33">
+        <v>-0.01812954070393212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02820631551946464</v>
+        <v>0.02428943832903516</v>
       </c>
       <c r="C34">
-        <v>0.01646978428346128</v>
+        <v>-0.02242791540191642</v>
       </c>
       <c r="D34">
-        <v>0.00908107220539736</v>
+        <v>0.02589322934983674</v>
       </c>
       <c r="E34">
-        <v>0.03878800630037979</v>
+        <v>0.003941786740680779</v>
       </c>
       <c r="F34">
-        <v>0.04466796694618277</v>
+        <v>-0.02785671137179822</v>
       </c>
       <c r="G34">
-        <v>-0.01340091237149676</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02501328129414188</v>
+      </c>
+      <c r="H34">
+        <v>-0.0264862684748188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01234549651425681</v>
+        <v>0.01850925246796375</v>
       </c>
       <c r="C36">
-        <v>0.009567808108709091</v>
+        <v>0.001132813513862484</v>
       </c>
       <c r="D36">
-        <v>0.0003183784135246325</v>
+        <v>-0.0007485836276698471</v>
       </c>
       <c r="E36">
-        <v>0.03101061548830096</v>
+        <v>0.002690781445388341</v>
       </c>
       <c r="F36">
-        <v>0.0321687595473438</v>
+        <v>-0.00705674143656912</v>
       </c>
       <c r="G36">
-        <v>-0.03478414729512196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02101925734196193</v>
+      </c>
+      <c r="H36">
+        <v>0.001778109358779244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005678411693063751</v>
+        <v>0.01287223380461016</v>
       </c>
       <c r="C38">
-        <v>-0.002293468874581302</v>
+        <v>-0.01763557377191929</v>
       </c>
       <c r="D38">
-        <v>-0.01554404795015013</v>
+        <v>-0.0003132179760634876</v>
       </c>
       <c r="E38">
-        <v>-0.005928714470955013</v>
+        <v>0.007205611019221973</v>
       </c>
       <c r="F38">
-        <v>0.0079597663403209</v>
+        <v>-0.009692283157864412</v>
       </c>
       <c r="G38">
-        <v>0.001045830298280787</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.0240240857639527</v>
+      </c>
+      <c r="H38">
+        <v>-0.01880436264995181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03669525887745893</v>
+        <v>0.02572126939866344</v>
       </c>
       <c r="C39">
-        <v>0.02351918614858621</v>
+        <v>-0.008154336909538871</v>
       </c>
       <c r="D39">
-        <v>0.02541775127318944</v>
+        <v>0.06175073082009388</v>
       </c>
       <c r="E39">
-        <v>0.03942515390559528</v>
+        <v>-0.005375698809646806</v>
       </c>
       <c r="F39">
-        <v>0.05042935575240774</v>
+        <v>-0.05080731472434608</v>
       </c>
       <c r="G39">
-        <v>-0.02343287751297238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05121194013968282</v>
+      </c>
+      <c r="H39">
+        <v>-0.04974152561823292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02789190098755922</v>
+        <v>0.03000073014418442</v>
       </c>
       <c r="C40">
-        <v>0.03736233991391775</v>
+        <v>-0.007442919961862001</v>
       </c>
       <c r="D40">
-        <v>0.04753421567318707</v>
+        <v>0.02009203191548429</v>
       </c>
       <c r="E40">
-        <v>0.05145293228616932</v>
+        <v>-0.01968394536789427</v>
       </c>
       <c r="F40">
-        <v>0.07523300968968029</v>
+        <v>-0.03979126268393972</v>
       </c>
       <c r="G40">
-        <v>-0.07877348004586919</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03509315295950267</v>
+      </c>
+      <c r="H40">
+        <v>-0.04827970264678714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00392250511208913</v>
+        <v>0.007329137489963709</v>
       </c>
       <c r="C41">
-        <v>-0.009016849567219872</v>
+        <v>0.0004523575333086044</v>
       </c>
       <c r="D41">
-        <v>0.006405980642968638</v>
+        <v>-0.004900842354066214</v>
       </c>
       <c r="E41">
-        <v>0.01982674406078844</v>
+        <v>-0.0009637039653280252</v>
       </c>
       <c r="F41">
-        <v>0.01517620104218654</v>
+        <v>0.005762234005174238</v>
       </c>
       <c r="G41">
-        <v>-0.05871111707404474</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.004684016375282938</v>
+      </c>
+      <c r="H41">
+        <v>0.01724863376928971</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3999275772360183</v>
+        <v>0.247048454318259</v>
       </c>
       <c r="C42">
-        <v>-0.8677953206885204</v>
+        <v>0.05077610451390734</v>
       </c>
       <c r="D42">
-        <v>0.2062742625297308</v>
+        <v>0.615496596562063</v>
       </c>
       <c r="E42">
-        <v>-0.1073502063630993</v>
+        <v>-0.1412687298300616</v>
       </c>
       <c r="F42">
-        <v>-0.02407352411115045</v>
+        <v>0.7164004433255842</v>
       </c>
       <c r="G42">
-        <v>-0.0004347906377736155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.08167332306771281</v>
+      </c>
+      <c r="H42">
+        <v>-0.02059150487599724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01024343895905974</v>
+        <v>0.004541554199444088</v>
       </c>
       <c r="C43">
-        <v>-0.004374473337600836</v>
+        <v>0.003445301353725114</v>
       </c>
       <c r="D43">
-        <v>0.01083654170659552</v>
+        <v>-0.006488341756068917</v>
       </c>
       <c r="E43">
-        <v>0.02182361852241979</v>
+        <v>-0.004862791336046775</v>
       </c>
       <c r="F43">
-        <v>0.03184088724299719</v>
+        <v>0.009664714744828506</v>
       </c>
       <c r="G43">
-        <v>-0.05526235439387928</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0130199205388875</v>
+      </c>
+      <c r="H43">
+        <v>0.009076910366779255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01688536942807338</v>
+        <v>0.0114624873695294</v>
       </c>
       <c r="C44">
-        <v>0.004602411238409942</v>
+        <v>-0.001463547446811818</v>
       </c>
       <c r="D44">
-        <v>0.01686143426179231</v>
+        <v>0.02613252270185519</v>
       </c>
       <c r="E44">
-        <v>0.06390307424780295</v>
+        <v>0.002394782135955707</v>
       </c>
       <c r="F44">
-        <v>0.1837991671498655</v>
+        <v>-0.009866024519523189</v>
       </c>
       <c r="G44">
-        <v>-0.1842181946736503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08440260765182421</v>
+      </c>
+      <c r="H44">
+        <v>-0.01567638751242547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0168491632860725</v>
+        <v>0.02130663451020504</v>
       </c>
       <c r="C46">
-        <v>0.02062714506446206</v>
+        <v>-0.002723755478611106</v>
       </c>
       <c r="D46">
-        <v>0.01271775176027017</v>
+        <v>0.006826215278631707</v>
       </c>
       <c r="E46">
-        <v>0.05691586046490646</v>
+        <v>-0.003452160492218956</v>
       </c>
       <c r="F46">
-        <v>0.05785558111365621</v>
+        <v>-0.03405033478713083</v>
       </c>
       <c r="G46">
-        <v>-0.04659921249483104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04694744790822356</v>
+      </c>
+      <c r="H46">
+        <v>0.01530311133597833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09337846004175479</v>
+        <v>0.07147335018218789</v>
       </c>
       <c r="C47">
-        <v>0.03577543551570062</v>
+        <v>-0.04669044614390681</v>
       </c>
       <c r="D47">
-        <v>0.02440499200987933</v>
+        <v>0.02094687047228012</v>
       </c>
       <c r="E47">
-        <v>0.05202786677424264</v>
+        <v>-0.007948774539968017</v>
       </c>
       <c r="F47">
-        <v>-9.001983780778537e-05</v>
+        <v>-0.03367870936096113</v>
       </c>
       <c r="G47">
-        <v>-0.07736308114525051</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.0183427227216334</v>
+      </c>
+      <c r="H47">
+        <v>0.0296018840207755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.008003635258818229</v>
+        <v>0.01652072301615102</v>
       </c>
       <c r="C48">
-        <v>0.004491809298857839</v>
+        <v>-0.00856428244387753</v>
       </c>
       <c r="D48">
-        <v>0.01129544932288157</v>
+        <v>0.005870518018053461</v>
       </c>
       <c r="E48">
-        <v>0.04735635772654782</v>
+        <v>-0.001169431771902192</v>
       </c>
       <c r="F48">
-        <v>0.04777985258838775</v>
+        <v>-0.0125812566691814</v>
       </c>
       <c r="G48">
-        <v>-0.01271337964207428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02672608922573043</v>
+      </c>
+      <c r="H48">
+        <v>-0.003102756929498459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08453861623188817</v>
+        <v>0.06492127493626049</v>
       </c>
       <c r="C50">
-        <v>0.02265894280031432</v>
+        <v>-0.03969686645886561</v>
       </c>
       <c r="D50">
-        <v>0.03650555232147137</v>
+        <v>0.0347750854684271</v>
       </c>
       <c r="E50">
-        <v>0.05506081922946322</v>
+        <v>0.005050400136283831</v>
       </c>
       <c r="F50">
-        <v>0.02843791650982059</v>
+        <v>-0.03352780085548137</v>
       </c>
       <c r="G50">
-        <v>-0.01722510841665564</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0153812486036767</v>
+      </c>
+      <c r="H50">
+        <v>0.0251139639855775</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0383765030475878</v>
+        <v>0.02603041043346794</v>
       </c>
       <c r="C51">
-        <v>-0.0001918298430742944</v>
+        <v>-0.00579298153937913</v>
       </c>
       <c r="D51">
-        <v>0.04406394763110092</v>
+        <v>-0.002307811905510393</v>
       </c>
       <c r="E51">
-        <v>0.02118652271510444</v>
+        <v>-0.01347919142500633</v>
       </c>
       <c r="F51">
-        <v>0.1543429606906661</v>
+        <v>0.01706046614921064</v>
       </c>
       <c r="G51">
-        <v>-0.07621480492056168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0811998539560693</v>
+      </c>
+      <c r="H51">
+        <v>-0.02589177719455668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1031177046148822</v>
+        <v>0.09135632331556767</v>
       </c>
       <c r="C53">
-        <v>0.04917773732591713</v>
+        <v>-0.05901195124640404</v>
       </c>
       <c r="D53">
-        <v>0.03962423755034566</v>
+        <v>0.04403843885181484</v>
       </c>
       <c r="E53">
-        <v>0.06639088157629926</v>
+        <v>-0.006904084811080154</v>
       </c>
       <c r="F53">
-        <v>-0.0580843785132162</v>
+        <v>-0.06837293522298521</v>
       </c>
       <c r="G53">
-        <v>-0.03366487980335815</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.06042350115087071</v>
+      </c>
+      <c r="H53">
+        <v>0.03345623655680927</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02173098871624595</v>
+        <v>0.0222533132488961</v>
       </c>
       <c r="C54">
-        <v>0.03791986607252738</v>
+        <v>-0.01810625178989285</v>
       </c>
       <c r="D54">
-        <v>0.00214614105872288</v>
+        <v>-0.02233742223991555</v>
       </c>
       <c r="E54">
-        <v>0.03545815358905053</v>
+        <v>0.00344493128494378</v>
       </c>
       <c r="F54">
-        <v>0.06870887386286713</v>
+        <v>-0.01210610166143497</v>
       </c>
       <c r="G54">
-        <v>-0.06478050037752249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03982291076844436</v>
+      </c>
+      <c r="H54">
+        <v>0.02116751347373391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1013152821699787</v>
+        <v>0.07881828240257795</v>
       </c>
       <c r="C55">
-        <v>0.03570666451094349</v>
+        <v>-0.05197250337803273</v>
       </c>
       <c r="D55">
-        <v>-0.004434963703614053</v>
+        <v>0.04351245752479362</v>
       </c>
       <c r="E55">
-        <v>0.06314502354929062</v>
+        <v>0.005945995680959657</v>
       </c>
       <c r="F55">
-        <v>-0.05748686444397094</v>
+        <v>-0.05787931851727444</v>
       </c>
       <c r="G55">
-        <v>-0.05257244591627949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03948747664423754</v>
+      </c>
+      <c r="H55">
+        <v>0.05003961590260385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1408685357821756</v>
+        <v>0.118727067702612</v>
       </c>
       <c r="C56">
-        <v>0.07547407775582077</v>
+        <v>-0.08371302072354889</v>
       </c>
       <c r="D56">
-        <v>0.02294050695446537</v>
+        <v>0.05798223254648502</v>
       </c>
       <c r="E56">
-        <v>0.08457425953936358</v>
+        <v>-0.002238035346141871</v>
       </c>
       <c r="F56">
-        <v>-0.1609591231696506</v>
+        <v>-0.09550612224989985</v>
       </c>
       <c r="G56">
-        <v>-0.0147803929281866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1036535645215381</v>
+      </c>
+      <c r="H56">
+        <v>0.02419660101436653</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04045406765622973</v>
+        <v>0.0423701840479432</v>
       </c>
       <c r="C57">
-        <v>0.01613809583743896</v>
+        <v>0.00105599128466818</v>
       </c>
       <c r="D57">
-        <v>0.02770135681903879</v>
+        <v>0.01943850129373151</v>
       </c>
       <c r="E57">
-        <v>0.02610647495959623</v>
+        <v>-0.01225461496992848</v>
       </c>
       <c r="F57">
-        <v>0.07476891300391665</v>
+        <v>-0.02758207816602728</v>
       </c>
       <c r="G57">
-        <v>-0.03475512426814165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06580250834443152</v>
+      </c>
+      <c r="H57">
+        <v>-0.01035798503222151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2019030406183144</v>
+        <v>0.1517060763204182</v>
       </c>
       <c r="C58">
-        <v>0.06990665905565807</v>
+        <v>-0.08050071689528764</v>
       </c>
       <c r="D58">
-        <v>0.1039001413760215</v>
+        <v>0.1087797321782135</v>
       </c>
       <c r="E58">
-        <v>0.194139029755791</v>
+        <v>-0.1271910338865364</v>
       </c>
       <c r="F58">
-        <v>0.3129033994258023</v>
+        <v>-0.07264672566796757</v>
       </c>
       <c r="G58">
-        <v>0.3488494217518226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6653308737945046</v>
+      </c>
+      <c r="H58">
+        <v>0.5809091007411588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07834320346651073</v>
+        <v>0.1195720772455131</v>
       </c>
       <c r="C59">
-        <v>0.09304077603718273</v>
+        <v>-0.05859224022808963</v>
       </c>
       <c r="D59">
-        <v>-0.02872867865251237</v>
+        <v>-0.2072975811194654</v>
       </c>
       <c r="E59">
-        <v>-0.1440413625096943</v>
+        <v>-0.02895561146880985</v>
       </c>
       <c r="F59">
-        <v>0.05872371159060794</v>
+        <v>0.1025900875889821</v>
       </c>
       <c r="G59">
-        <v>-0.01288406506782122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02811794179660241</v>
+      </c>
+      <c r="H59">
+        <v>-0.02683083802660676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1649723206188459</v>
+        <v>0.1609236010084994</v>
       </c>
       <c r="C60">
-        <v>0.07578206450400156</v>
+        <v>-0.07314845980034691</v>
       </c>
       <c r="D60">
-        <v>0.06181287405567391</v>
+        <v>-0.0001052803532991571</v>
       </c>
       <c r="E60">
-        <v>0.0253614363379656</v>
+        <v>-0.05559802932639237</v>
       </c>
       <c r="F60">
-        <v>0.1037276224365215</v>
+        <v>-0.07029255304569802</v>
       </c>
       <c r="G60">
-        <v>0.2721237818832631</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1409993199958742</v>
+      </c>
+      <c r="H60">
+        <v>-0.3597527458433432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01881544797938126</v>
+        <v>0.0218585927177024</v>
       </c>
       <c r="C61">
-        <v>0.01110144599660917</v>
+        <v>-0.01160058457102012</v>
       </c>
       <c r="D61">
-        <v>0.003464732298584994</v>
+        <v>0.03198642256699481</v>
       </c>
       <c r="E61">
-        <v>0.02112948222352159</v>
+        <v>0.001045848053064502</v>
       </c>
       <c r="F61">
-        <v>0.0433919001890508</v>
+        <v>-0.03518272326115787</v>
       </c>
       <c r="G61">
-        <v>-0.008520291925583205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0327902703664994</v>
+      </c>
+      <c r="H61">
+        <v>-0.03765374656332382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01651235013564123</v>
+        <v>0.01423110583191284</v>
       </c>
       <c r="C63">
-        <v>0.01613064241250606</v>
+        <v>-0.001755017813236646</v>
       </c>
       <c r="D63">
-        <v>0.01176182218263747</v>
+        <v>0.00482574413296427</v>
       </c>
       <c r="E63">
-        <v>0.04596468496728071</v>
+        <v>0.001139746069732697</v>
       </c>
       <c r="F63">
-        <v>0.01911417945382756</v>
+        <v>-0.02185324139657598</v>
       </c>
       <c r="G63">
-        <v>-0.03544042423164718</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01678297032329931</v>
+      </c>
+      <c r="H63">
+        <v>0.008635467406634558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02834743443726502</v>
+        <v>0.03753349598219664</v>
       </c>
       <c r="C64">
-        <v>0.0208946886586365</v>
+        <v>-0.01843365035478137</v>
       </c>
       <c r="D64">
-        <v>-0.02032061180961337</v>
+        <v>0.02824361853819154</v>
       </c>
       <c r="E64">
-        <v>0.04650543079509652</v>
+        <v>0.01143298258369521</v>
       </c>
       <c r="F64">
-        <v>0.02299576271513691</v>
+        <v>-0.03247380021968894</v>
       </c>
       <c r="G64">
-        <v>-0.06729719596859232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.00916179645657289</v>
+      </c>
+      <c r="H64">
+        <v>-0.03212125526066189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01010421659234194</v>
+        <v>0.03607606471574736</v>
       </c>
       <c r="C65">
-        <v>-0.0004112217651681235</v>
+        <v>-0.004272841717647548</v>
       </c>
       <c r="D65">
-        <v>0.008778108128542815</v>
+        <v>0.03517831326088473</v>
       </c>
       <c r="E65">
-        <v>0.003937900429455269</v>
+        <v>0.0032874447064901</v>
       </c>
       <c r="F65">
-        <v>0.009147452634265489</v>
+        <v>-0.04000764047856867</v>
       </c>
       <c r="G65">
-        <v>0.01721680928426468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002343632307434226</v>
+      </c>
+      <c r="H65">
+        <v>-0.05913140238531251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03417088028420709</v>
+        <v>0.03112866395694613</v>
       </c>
       <c r="C66">
-        <v>0.02688733579078661</v>
+        <v>-0.01447643650632553</v>
       </c>
       <c r="D66">
-        <v>0.01903992305982525</v>
+        <v>0.06564506641889183</v>
       </c>
       <c r="E66">
-        <v>0.04328529541894319</v>
+        <v>-0.01101888098669363</v>
       </c>
       <c r="F66">
-        <v>0.0465402846798992</v>
+        <v>-0.07077063272800589</v>
       </c>
       <c r="G66">
-        <v>-0.01136650420195503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04297569425468847</v>
+      </c>
+      <c r="H66">
+        <v>-0.06258031553791053</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02583408081449266</v>
+        <v>0.03167731537760579</v>
       </c>
       <c r="C67">
-        <v>0.009011335036899737</v>
+        <v>-0.02481571103491935</v>
       </c>
       <c r="D67">
-        <v>-0.01528327551140764</v>
+        <v>-0.009251709392795158</v>
       </c>
       <c r="E67">
-        <v>-0.0296321001185608</v>
+        <v>0.003205113860691057</v>
       </c>
       <c r="F67">
-        <v>0.01845781008250513</v>
+        <v>-0.01112205801512187</v>
       </c>
       <c r="G67">
-        <v>0.001877054819678891</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01517970586382659</v>
+      </c>
+      <c r="H67">
+        <v>-0.03198039886562862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08942094353429034</v>
+        <v>0.1227108498534848</v>
       </c>
       <c r="C68">
-        <v>0.07704478573298347</v>
+        <v>-0.03697630473997121</v>
       </c>
       <c r="D68">
-        <v>-0.04157422349898889</v>
+        <v>-0.1957261610282889</v>
       </c>
       <c r="E68">
-        <v>-0.1816915877191864</v>
+        <v>-0.02471328078603286</v>
       </c>
       <c r="F68">
-        <v>0.01001216529427774</v>
+        <v>0.1204112271726841</v>
       </c>
       <c r="G68">
-        <v>0.04594486164012374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01408469799031413</v>
+      </c>
+      <c r="H68">
+        <v>0.04773704349118683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07195083334942756</v>
+        <v>0.05522320726801495</v>
       </c>
       <c r="C69">
-        <v>0.03583747585475017</v>
+        <v>-0.04125954836274357</v>
       </c>
       <c r="D69">
-        <v>0.02649137875550582</v>
+        <v>0.01827699927569915</v>
       </c>
       <c r="E69">
-        <v>0.0145062933311284</v>
+        <v>-0.008223971000352773</v>
       </c>
       <c r="F69">
-        <v>0.01777533165007799</v>
+        <v>-0.03260395835531601</v>
       </c>
       <c r="G69">
-        <v>-0.06197351973529102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.005977428507152292</v>
+      </c>
+      <c r="H69">
+        <v>0.009963699550529998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1042575296146058</v>
+        <v>0.1184934291598925</v>
       </c>
       <c r="C71">
-        <v>0.07919588960377014</v>
+        <v>-0.04541088386661611</v>
       </c>
       <c r="D71">
-        <v>-0.01639327950608759</v>
+        <v>-0.1834556585931081</v>
       </c>
       <c r="E71">
-        <v>-0.2284807614146883</v>
+        <v>-0.0279159953516548</v>
       </c>
       <c r="F71">
-        <v>0.04092381728309527</v>
+        <v>0.1287840321560041</v>
       </c>
       <c r="G71">
-        <v>-0.009972092599077949</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01938780345971733</v>
+      </c>
+      <c r="H71">
+        <v>0.02174928889486816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1067099902843267</v>
+        <v>0.08380093663710161</v>
       </c>
       <c r="C72">
-        <v>0.1194288391518582</v>
+        <v>-0.06377994430292572</v>
       </c>
       <c r="D72">
-        <v>0.01747127068342219</v>
+        <v>0.04981450365919633</v>
       </c>
       <c r="E72">
-        <v>0.09882234030093007</v>
+        <v>-0.01352469780273983</v>
       </c>
       <c r="F72">
-        <v>0.08485085100983178</v>
+        <v>-0.1299823965981903</v>
       </c>
       <c r="G72">
-        <v>0.129792883129887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09376213057280751</v>
+      </c>
+      <c r="H72">
+        <v>-0.1334149338585964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2431292379432174</v>
+        <v>0.2293334752685131</v>
       </c>
       <c r="C73">
-        <v>0.1106699528729887</v>
+        <v>-0.0987145510029409</v>
       </c>
       <c r="D73">
-        <v>0.06215298148449765</v>
+        <v>0.02219331718911327</v>
       </c>
       <c r="E73">
-        <v>-0.0239257291643185</v>
+        <v>-0.09095187916678597</v>
       </c>
       <c r="F73">
-        <v>0.2248501839638227</v>
+        <v>-0.08087000620918443</v>
       </c>
       <c r="G73">
-        <v>0.4256420104321338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2124312859878606</v>
+      </c>
+      <c r="H73">
+        <v>-0.5045378951713361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1228731485926614</v>
+        <v>0.1063269495280659</v>
       </c>
       <c r="C74">
-        <v>0.04027550355095248</v>
+        <v>-0.07433504849446573</v>
       </c>
       <c r="D74">
-        <v>0.02645530589820212</v>
+        <v>0.05800858234230998</v>
       </c>
       <c r="E74">
-        <v>0.04843396520331583</v>
+        <v>-0.00849264347135488</v>
       </c>
       <c r="F74">
-        <v>-0.1137556165224382</v>
+        <v>-0.07789641637513672</v>
       </c>
       <c r="G74">
-        <v>-0.01851456291598273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.08715382132853224</v>
+      </c>
+      <c r="H74">
+        <v>0.001680909666683052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2148860223294222</v>
+        <v>0.2123657793474672</v>
       </c>
       <c r="C75">
-        <v>0.1178322363202128</v>
+        <v>-0.150554150918844</v>
       </c>
       <c r="D75">
-        <v>0.06351940432942839</v>
+        <v>0.06690311451050197</v>
       </c>
       <c r="E75">
-        <v>0.09086361941499328</v>
+        <v>-0.03321366904895458</v>
       </c>
       <c r="F75">
-        <v>-0.1806116613869846</v>
+        <v>-0.1493029405036933</v>
       </c>
       <c r="G75">
-        <v>-0.07469921356533421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1634164312366012</v>
+      </c>
+      <c r="H75">
+        <v>0.08213915043431502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2564922869016101</v>
+        <v>0.2002305757711443</v>
       </c>
       <c r="C76">
-        <v>0.1318521950003407</v>
+        <v>-0.1464916030102098</v>
       </c>
       <c r="D76">
-        <v>0.009508174960708238</v>
+        <v>0.07001551669286306</v>
       </c>
       <c r="E76">
-        <v>0.07869285179335316</v>
+        <v>0.008031168884703385</v>
       </c>
       <c r="F76">
-        <v>-0.2055319591573679</v>
+        <v>-0.1563552148971415</v>
       </c>
       <c r="G76">
-        <v>-0.08489824890724414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1807789136067539</v>
+      </c>
+      <c r="H76">
+        <v>0.09170945413342586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1303572672206571</v>
+        <v>0.07397210059545847</v>
       </c>
       <c r="C77">
-        <v>-0.02132784868319608</v>
+        <v>-0.02489177191689388</v>
       </c>
       <c r="D77">
-        <v>0.05908265011716313</v>
+        <v>0.07800003447266357</v>
       </c>
       <c r="E77">
-        <v>0.08819653676931091</v>
+        <v>-0.01534900340757806</v>
       </c>
       <c r="F77">
-        <v>0.1943604786643236</v>
+        <v>-0.0072344867856792</v>
       </c>
       <c r="G77">
-        <v>-0.1201245219961272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1137113717451715</v>
+      </c>
+      <c r="H77">
+        <v>0.06166244003538641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0502251980480763</v>
+        <v>0.03572339242759037</v>
       </c>
       <c r="C78">
-        <v>0.009071251800994324</v>
+        <v>-0.01781933434075338</v>
       </c>
       <c r="D78">
-        <v>0.02671034188629166</v>
+        <v>0.05320809281434786</v>
       </c>
       <c r="E78">
-        <v>0.108071332995312</v>
+        <v>0.001384966243374784</v>
       </c>
       <c r="F78">
-        <v>0.02896619658858277</v>
+        <v>-0.05167706761460023</v>
       </c>
       <c r="G78">
-        <v>-0.05882759198166133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0472330927347694</v>
+      </c>
+      <c r="H78">
+        <v>-0.03032877812069037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2099902630611891</v>
+        <v>0.1731287492184983</v>
       </c>
       <c r="C80">
-        <v>-0.1604346610795205</v>
+        <v>-0.09114712007189123</v>
       </c>
       <c r="D80">
-        <v>-0.930465626471638</v>
+        <v>0.05468222380421395</v>
       </c>
       <c r="E80">
-        <v>0.201515688988843</v>
+        <v>0.9587590910520114</v>
       </c>
       <c r="F80">
-        <v>0.04173795310653809</v>
+        <v>0.1077936690898731</v>
       </c>
       <c r="G80">
-        <v>0.04247529926081717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1043931431868684</v>
+      </c>
+      <c r="H80">
+        <v>-0.003635125908178725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1536492190004127</v>
+        <v>0.1443550070535362</v>
       </c>
       <c r="C81">
-        <v>0.1047162842876203</v>
+        <v>-0.1023594133929969</v>
       </c>
       <c r="D81">
-        <v>0.01907258058978023</v>
+        <v>0.0420020332188815</v>
       </c>
       <c r="E81">
-        <v>0.07299812555556601</v>
+        <v>-0.006778260299161603</v>
       </c>
       <c r="F81">
-        <v>-0.1823864492009473</v>
+        <v>-0.1088581502811761</v>
       </c>
       <c r="G81">
-        <v>-0.006974864722948073</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.114793563167893</v>
+      </c>
+      <c r="H81">
+        <v>0.06859792474425878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05030667150735167</v>
+        <v>0.03776115302787579</v>
       </c>
       <c r="C83">
-        <v>-0.01181781461625919</v>
+        <v>-0.01548686137809387</v>
       </c>
       <c r="D83">
-        <v>0.03635620583945388</v>
+        <v>0.02178317390025101</v>
       </c>
       <c r="E83">
-        <v>0.04452760497363604</v>
+        <v>-0.0136549837078857</v>
       </c>
       <c r="F83">
-        <v>0.07076264817706775</v>
+        <v>-0.01341138491000103</v>
       </c>
       <c r="G83">
-        <v>-0.06665744414998781</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05332387861034084</v>
+      </c>
+      <c r="H83">
+        <v>-0.01904620528805409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2249511047974943</v>
+        <v>0.2029161745027826</v>
       </c>
       <c r="C85">
-        <v>0.0997633033476323</v>
+        <v>-0.130320954389998</v>
       </c>
       <c r="D85">
-        <v>0.03527400366049283</v>
+        <v>0.0889354430920862</v>
       </c>
       <c r="E85">
-        <v>0.06549986116051491</v>
+        <v>-0.02174778511260183</v>
       </c>
       <c r="F85">
-        <v>-0.2023889312530657</v>
+        <v>-0.1413176917463885</v>
       </c>
       <c r="G85">
-        <v>-0.06560591457272107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1703052896047367</v>
+      </c>
+      <c r="H85">
+        <v>0.06073340462944962</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.002615138966956162</v>
+        <v>0.01139379354199046</v>
       </c>
       <c r="C86">
-        <v>-0.008585889396241476</v>
+        <v>0.0004896476788627153</v>
       </c>
       <c r="D86">
-        <v>0.00031184389393298</v>
+        <v>0.01527769095271096</v>
       </c>
       <c r="E86">
-        <v>0.0758793594356572</v>
+        <v>-0.006042281364598181</v>
       </c>
       <c r="F86">
-        <v>0.07116068456085542</v>
+        <v>-0.008038486077630202</v>
       </c>
       <c r="G86">
-        <v>-0.05561893787299702</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.073502146620695</v>
+      </c>
+      <c r="H86">
+        <v>-0.03772594984624367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02739930466475253</v>
+        <v>0.02521311649815642</v>
       </c>
       <c r="C87">
-        <v>0.008918151664555861</v>
+        <v>-0.007689527853193897</v>
       </c>
       <c r="D87">
-        <v>0.00707357539925561</v>
+        <v>0.02515598301326577</v>
       </c>
       <c r="E87">
-        <v>0.0397048029611526</v>
+        <v>-0.00167600903286943</v>
       </c>
       <c r="F87">
-        <v>0.06393448254884222</v>
+        <v>-0.02905965083667478</v>
       </c>
       <c r="G87">
-        <v>-0.0134521666410638</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08598389758917215</v>
+      </c>
+      <c r="H87">
+        <v>-0.02698349610437232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.007932755809962298</v>
+        <v>0.04014238906208098</v>
       </c>
       <c r="C88">
-        <v>0.02057019645907438</v>
+        <v>0.001960811192845617</v>
       </c>
       <c r="D88">
-        <v>-0.02124090836840425</v>
+        <v>-0.009016763500469517</v>
       </c>
       <c r="E88">
-        <v>-0.002381727231690914</v>
+        <v>0.005971628153132982</v>
       </c>
       <c r="F88">
-        <v>0.0299500407825278</v>
+        <v>-0.01071430618901655</v>
       </c>
       <c r="G88">
-        <v>-0.08926190166955172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.005331867715657214</v>
+      </c>
+      <c r="H88">
+        <v>-0.01440170339084935</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1246173218971496</v>
+        <v>0.1913328558636164</v>
       </c>
       <c r="C89">
-        <v>0.09427694225848726</v>
+        <v>-0.06895401115939018</v>
       </c>
       <c r="D89">
-        <v>-0.01989164081919079</v>
+        <v>-0.325438758101924</v>
       </c>
       <c r="E89">
-        <v>-0.3098177489597198</v>
+        <v>-0.0627703161297793</v>
       </c>
       <c r="F89">
-        <v>0.09337084419572884</v>
+        <v>0.1937156179367904</v>
       </c>
       <c r="G89">
-        <v>-0.03697431042598914</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01068993515818568</v>
+      </c>
+      <c r="H89">
+        <v>0.01648311086032598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.116384496856411</v>
+        <v>0.1485587064863768</v>
       </c>
       <c r="C90">
-        <v>0.09731653094975916</v>
+        <v>-0.05381149168192534</v>
       </c>
       <c r="D90">
-        <v>-0.07467556874503645</v>
+        <v>-0.2800910544119291</v>
       </c>
       <c r="E90">
-        <v>-0.2836017881078488</v>
+        <v>-0.03448959988588916</v>
       </c>
       <c r="F90">
-        <v>0.060496124770892</v>
+        <v>0.179146719512364</v>
       </c>
       <c r="G90">
-        <v>0.02011261608869245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02565612930578328</v>
+      </c>
+      <c r="H90">
+        <v>0.03758340129210209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2846575434064924</v>
+        <v>0.22287562460261</v>
       </c>
       <c r="C91">
-        <v>0.1043488759884383</v>
+        <v>-0.1551718158939646</v>
       </c>
       <c r="D91">
-        <v>0.06089472498268148</v>
+        <v>0.08224593320766753</v>
       </c>
       <c r="E91">
-        <v>0.05759754062058164</v>
+        <v>-0.02723233231903021</v>
       </c>
       <c r="F91">
-        <v>-0.2489663590424608</v>
+        <v>-0.1455379894712402</v>
       </c>
       <c r="G91">
-        <v>-0.02056531818739282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2197789105076952</v>
+      </c>
+      <c r="H91">
+        <v>0.1125212851242028</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1869082653854517</v>
+        <v>0.2067312351357936</v>
       </c>
       <c r="C92">
-        <v>0.09137398581383933</v>
+        <v>-0.1369564090362582</v>
       </c>
       <c r="D92">
-        <v>-0.09559136544687466</v>
+        <v>-0.2445560471478777</v>
       </c>
       <c r="E92">
-        <v>-0.4384466572231925</v>
+        <v>-0.02432314859231506</v>
       </c>
       <c r="F92">
-        <v>0.1180490974905861</v>
+        <v>0.1520448927402575</v>
       </c>
       <c r="G92">
-        <v>-0.3426311347328531</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03768590974465941</v>
+      </c>
+      <c r="H92">
+        <v>0.1302516113481815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1285020375672609</v>
+        <v>0.17002221356803</v>
       </c>
       <c r="C93">
-        <v>0.08054989955001636</v>
+        <v>-0.06867792399647298</v>
       </c>
       <c r="D93">
-        <v>-0.08009175369145076</v>
+        <v>-0.3002587568806837</v>
       </c>
       <c r="E93">
-        <v>-0.3955934387872629</v>
+        <v>-0.05080026585929288</v>
       </c>
       <c r="F93">
-        <v>0.01280316473421724</v>
+        <v>0.2198016504665114</v>
       </c>
       <c r="G93">
-        <v>0.03640825541249287</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02875976662603158</v>
+      </c>
+      <c r="H93">
+        <v>-0.01789725423533228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2581269737963444</v>
+        <v>0.2433201966143796</v>
       </c>
       <c r="C94">
-        <v>0.1337561749291627</v>
+        <v>-0.1482751635395146</v>
       </c>
       <c r="D94">
-        <v>0.02771530430840309</v>
+        <v>0.05889680092823415</v>
       </c>
       <c r="E94">
-        <v>0.08148320067712966</v>
+        <v>-0.04119205156906676</v>
       </c>
       <c r="F94">
-        <v>-0.2977784625740983</v>
+        <v>-0.1642704907395106</v>
       </c>
       <c r="G94">
-        <v>0.005678294137006996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2350935486473197</v>
+      </c>
+      <c r="H94">
+        <v>0.1243893171217438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08797648900735218</v>
+        <v>0.0649280976450107</v>
       </c>
       <c r="C95">
-        <v>0.02024740706155876</v>
+        <v>-0.04789149116619928</v>
       </c>
       <c r="D95">
-        <v>0.06789219345648663</v>
+        <v>0.07115710717240084</v>
       </c>
       <c r="E95">
-        <v>0.09171505362730444</v>
+        <v>-0.07681992496406249</v>
       </c>
       <c r="F95">
-        <v>0.04308677477431083</v>
+        <v>-0.03518748968768812</v>
       </c>
       <c r="G95">
-        <v>-0.3471639497360428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06054162800724901</v>
+      </c>
+      <c r="H95">
+        <v>-0.009399301386049266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1836130423908005</v>
+        <v>0.1639436234029407</v>
       </c>
       <c r="C98">
-        <v>0.05684493979992704</v>
+        <v>-0.1041886664270411</v>
       </c>
       <c r="D98">
-        <v>0.0471639662670144</v>
+        <v>0.01110837563894488</v>
       </c>
       <c r="E98">
-        <v>-0.06724750690179018</v>
+        <v>-0.06089036339172107</v>
       </c>
       <c r="F98">
-        <v>0.09144933634340956</v>
+        <v>-0.03120452956820346</v>
       </c>
       <c r="G98">
-        <v>0.2750809157623577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1756372187656418</v>
+      </c>
+      <c r="H98">
+        <v>-0.3579065333218153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002785274368703673</v>
+        <v>0.01393210097025907</v>
       </c>
       <c r="C101">
-        <v>0.02719361606401748</v>
+        <v>-0.003026552999872428</v>
       </c>
       <c r="D101">
-        <v>0.008978294013108134</v>
+        <v>0.005538962961674518</v>
       </c>
       <c r="E101">
-        <v>0.1207475518886521</v>
+        <v>0.004019781429129459</v>
       </c>
       <c r="F101">
-        <v>0.1852452385008676</v>
+        <v>-0.03678665027794514</v>
       </c>
       <c r="G101">
-        <v>0.02065265280959734</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09308487548260749</v>
+      </c>
+      <c r="H101">
+        <v>0.07204049865230826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09243198638604073</v>
+        <v>0.1037937125020343</v>
       </c>
       <c r="C102">
-        <v>0.03011763375891685</v>
+        <v>-0.0587602076022315</v>
       </c>
       <c r="D102">
-        <v>0.01295396573563075</v>
+        <v>0.04330961963584872</v>
       </c>
       <c r="E102">
-        <v>0.07792227484552106</v>
+        <v>-0.004942451517720677</v>
       </c>
       <c r="F102">
-        <v>-0.139041319773869</v>
+        <v>-0.07383683408292759</v>
       </c>
       <c r="G102">
-        <v>-0.07800317237716387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.1025094733350144</v>
+      </c>
+      <c r="H102">
+        <v>0.05379662996042921</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02663579855494893</v>
+        <v>0.02221008154816894</v>
       </c>
       <c r="C103">
-        <v>0.009142293551165578</v>
+        <v>-0.01362027560687469</v>
       </c>
       <c r="D103">
-        <v>0.009089558577015088</v>
+        <v>0.01348244274930496</v>
       </c>
       <c r="E103">
-        <v>0.01904325094000435</v>
+        <v>0.005988626500853839</v>
       </c>
       <c r="F103">
-        <v>-0.02736039459734863</v>
+        <v>-0.01867862679828702</v>
       </c>
       <c r="G103">
-        <v>-0.03424815507000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01061654324592384</v>
+      </c>
+      <c r="H103">
+        <v>0.008974029959848267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4523338921016448</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8686906429382633</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06449317901284761</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02568815802902533</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.15636127944291</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.0404421754386966</v>
+      </c>
+      <c r="H104">
+        <v>0.03205904987027131</v>
       </c>
     </row>
   </sheetData>
